--- a/biology/Histoire de la zoologie et de la botanique/Harry_Kirke_Swann/Harry_Kirke_Swann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Harry_Kirke_Swann/Harry_Kirke_Swann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harry Kirke Swann est un naturaliste britannique, né en 1871 et mort en 1926.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Très tôt passionné pour l’histoire naturelle, il part observer les oiseaux en Nouvelle-Écosse en 1891. Il réalise, avec William Herbert Mullens (1866-?), une Bibliography of British Ornithology. Son ouvrage le plus important est sa Monograph of the Birds of Prey qui sera complétée après sa mort par Alexander Wetmore (1886-1978).
 En 1904, il devient l’associé de John Alfred Edwards (1839-1916) de la librairie et maison d’édition John Wheldon &amp; Co spécialisée dans les sciences et l’histoire naturelle. En 1921, après la Grande Guerre, la société doit fusionner avec une autre entreprise sous le nom de Wheldon &amp; Wesley Ltd.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Historique de la maison Wheldon &amp; Wesley Ltd.</t>
         </is>
